--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-999111.0531608902</v>
+        <v>-1001919.830359175</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225.4711640828197</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>123.6894783786282</v>
+        <v>72.89268798065497</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.462026260311717</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>157.7226091094245</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U2" t="n">
         <v>251.1655630849886</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.4189530857758</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.631091187769</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>272.8833337736626</v>
       </c>
       <c r="V4" t="n">
-        <v>218.3333018377407</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>45.59484836506356</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>352.3072732336281</v>
+        <v>413.0516147295368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>73.7776421656838</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.981203174509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>81.37267030571257</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.083751140843</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>1.607057521141002</v>
       </c>
       <c r="R7" t="n">
-        <v>131.8901822333939</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>206.4189530857758</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.631091187769</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>77.93048319956721</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>88.82934329652028</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1190,10 +1190,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>88.71008901602659</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>122.4038163111462</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>18.95488441967092</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>133.8410052537953</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>97.54185816719593</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>70.04554881124335</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>139.6152205166465</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>162.3413016667519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>71.05846343488193</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174114</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545302</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1290.849181896829</v>
+        <v>1239.539292605947</v>
       </c>
       <c r="C2" t="n">
-        <v>921.8866649564175</v>
+        <v>870.5767756655353</v>
       </c>
       <c r="D2" t="n">
-        <v>563.6209663496669</v>
+        <v>512.3110770587848</v>
       </c>
       <c r="E2" t="n">
-        <v>177.8327137514226</v>
+        <v>126.5228244605406</v>
       </c>
       <c r="F2" t="n">
-        <v>177.8327137514226</v>
+        <v>126.5228244605406</v>
       </c>
       <c r="G2" t="n">
-        <v>177.8327137514226</v>
+        <v>126.5228244605406</v>
       </c>
       <c r="H2" t="n">
-        <v>177.8327137514226</v>
+        <v>126.5228244605406</v>
       </c>
       <c r="I2" t="n">
         <v>52.89384670230323</v>
       </c>
       <c r="J2" t="n">
-        <v>227.0001017375714</v>
+        <v>230.2146704401671</v>
       </c>
       <c r="K2" t="n">
-        <v>613.5028550866555</v>
+        <v>616.7174237892511</v>
       </c>
       <c r="L2" t="n">
         <v>1145.270325069732</v>
@@ -4352,28 +4352,28 @@
         <v>2644.692335115161</v>
       </c>
       <c r="R2" t="n">
-        <v>2636.144833842119</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.829067064923</v>
+        <v>2485.376568337965</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.829067064923</v>
+        <v>2269.981053620616</v>
       </c>
       <c r="U2" t="n">
-        <v>2223.126478090187</v>
+        <v>2016.27846464588</v>
       </c>
       <c r="V2" t="n">
-        <v>1892.063590746616</v>
+        <v>2016.27846464588</v>
       </c>
       <c r="W2" t="n">
-        <v>1892.063590746616</v>
+        <v>2016.27846464588</v>
       </c>
       <c r="X2" t="n">
-        <v>1518.597832485536</v>
+        <v>2016.27846464588</v>
       </c>
       <c r="Y2" t="n">
-        <v>1518.597832485536</v>
+        <v>1626.139132670069</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>969.5981276629532</v>
+        <v>969.5981276629536</v>
       </c>
       <c r="C3" t="n">
-        <v>795.1450983818262</v>
+        <v>795.1450983818266</v>
       </c>
       <c r="D3" t="n">
-        <v>646.2106887205748</v>
+        <v>646.2106887205753</v>
       </c>
       <c r="E3" t="n">
-        <v>486.9732337151192</v>
+        <v>486.9732337151197</v>
       </c>
       <c r="F3" t="n">
-        <v>340.4386757420044</v>
+        <v>340.4386757420048</v>
       </c>
       <c r="G3" t="n">
-        <v>202.9244734310165</v>
+        <v>202.9244734310166</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3053557345794</v>
+        <v>101.3053557345793</v>
       </c>
       <c r="I3" t="n">
         <v>52.89384670230323</v>
       </c>
       <c r="J3" t="n">
-        <v>52.89384670230323</v>
+        <v>164.8115348683178</v>
       </c>
       <c r="K3" t="n">
-        <v>370.7998448799311</v>
+        <v>482.7175330459457</v>
       </c>
       <c r="L3" t="n">
-        <v>859.6680877534743</v>
+        <v>971.5857759194889</v>
       </c>
       <c r="M3" t="n">
-        <v>1482.133490401852</v>
+        <v>1133.003165455367</v>
       </c>
       <c r="N3" t="n">
-        <v>1688.263342002135</v>
+        <v>1787.564518396369</v>
       </c>
       <c r="O3" t="n">
-        <v>2220.721977116716</v>
+        <v>2320.02315351095</v>
       </c>
       <c r="P3" t="n">
-        <v>2631.063906501244</v>
+        <v>2423.087391642754</v>
       </c>
       <c r="Q3" t="n">
         <v>2644.692335115161</v>
@@ -4437,10 +4437,10 @@
         <v>2468.241055635078</v>
       </c>
       <c r="T3" t="n">
-        <v>2270.958305883221</v>
+        <v>2270.958305883222</v>
       </c>
       <c r="U3" t="n">
-        <v>2042.814728613452</v>
+        <v>2042.814728613453</v>
       </c>
       <c r="V3" t="n">
         <v>1807.66262038171</v>
@@ -4449,10 +4449,10 @@
         <v>1553.425263653508</v>
       </c>
       <c r="X3" t="n">
-        <v>1345.573763447975</v>
+        <v>1345.573763447976</v>
       </c>
       <c r="Y3" t="n">
-        <v>1137.813464683021</v>
+        <v>1137.813464683022</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.89384670230323</v>
+        <v>497.8135271949425</v>
       </c>
       <c r="C4" t="n">
-        <v>52.89384670230323</v>
+        <v>497.8135271949425</v>
       </c>
       <c r="D4" t="n">
-        <v>52.89384670230323</v>
+        <v>347.6968877826067</v>
       </c>
       <c r="E4" t="n">
-        <v>52.89384670230323</v>
+        <v>199.7837942002136</v>
       </c>
       <c r="F4" t="n">
         <v>52.89384670230323</v>
@@ -4513,25 +4513,25 @@
         <v>999.3432493782068</v>
       </c>
       <c r="S4" t="n">
-        <v>790.8392563622717</v>
+        <v>999.3432493782068</v>
       </c>
       <c r="T4" t="n">
-        <v>790.8392563622717</v>
+        <v>773.4532582794502</v>
       </c>
       <c r="U4" t="n">
-        <v>790.8392563622717</v>
+        <v>497.8135271949425</v>
       </c>
       <c r="V4" t="n">
-        <v>570.3005676372811</v>
+        <v>497.8135271949425</v>
       </c>
       <c r="W4" t="n">
-        <v>280.8833976003206</v>
+        <v>497.8135271949425</v>
       </c>
       <c r="X4" t="n">
-        <v>52.89384670230323</v>
+        <v>497.8135271949425</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.89384670230323</v>
+        <v>497.8135271949425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1188.708200991543</v>
+        <v>1312.947259741267</v>
       </c>
       <c r="C5" t="n">
-        <v>819.7456840511311</v>
+        <v>1266.891857352314</v>
       </c>
       <c r="D5" t="n">
-        <v>819.7456840511311</v>
+        <v>1266.891857352314</v>
       </c>
       <c r="E5" t="n">
-        <v>819.7456840511311</v>
+        <v>881.1036047540692</v>
       </c>
       <c r="F5" t="n">
-        <v>408.7597792615235</v>
+        <v>470.1176999644616</v>
       </c>
       <c r="G5" t="n">
         <v>52.89384670230323</v>
@@ -4568,16 +4568,16 @@
         <v>62.80902141981412</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2835636039605</v>
+        <v>449.3117747688982</v>
       </c>
       <c r="L5" t="n">
-        <v>796.0510335870366</v>
+        <v>981.0792447519743</v>
       </c>
       <c r="M5" t="n">
-        <v>1404.351350038358</v>
+        <v>1589.379561203295</v>
       </c>
       <c r="N5" t="n">
-        <v>2007.86260402245</v>
+        <v>2192.890815187387</v>
       </c>
       <c r="O5" t="n">
         <v>2532.55352976465</v>
@@ -4595,22 +4595,22 @@
         <v>2636.144833842119</v>
       </c>
       <c r="T5" t="n">
-        <v>2636.144833842119</v>
+        <v>2420.749319124771</v>
       </c>
       <c r="U5" t="n">
-        <v>2636.144833842119</v>
+        <v>2420.749319124771</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.081946498548</v>
+        <v>2089.6864317812</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.313291228434</v>
+        <v>2089.6864317812</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.847532967354</v>
+        <v>2089.6864317812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.708200991543</v>
+        <v>1699.547099805388</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>340.4386757420044</v>
       </c>
       <c r="G6" t="n">
-        <v>202.9244734310165</v>
+        <v>202.9244734310164</v>
       </c>
       <c r="H6" t="n">
-        <v>101.3053557345794</v>
+        <v>101.3053557345793</v>
       </c>
       <c r="I6" t="n">
         <v>52.89384670230323</v>
       </c>
       <c r="J6" t="n">
-        <v>52.89384670230323</v>
+        <v>164.8115348683178</v>
       </c>
       <c r="K6" t="n">
-        <v>370.7998448799311</v>
+        <v>482.7175330459457</v>
       </c>
       <c r="L6" t="n">
-        <v>492.5361459030497</v>
+        <v>971.5857759194889</v>
       </c>
       <c r="M6" t="n">
-        <v>1115.001548551428</v>
+        <v>1594.051178567867</v>
       </c>
       <c r="N6" t="n">
-        <v>1769.56290149243</v>
+        <v>2185.488664181145</v>
       </c>
       <c r="O6" t="n">
-        <v>2302.021536607011</v>
+        <v>2328.023603211763</v>
       </c>
       <c r="P6" t="n">
         <v>2423.087391642754</v>
@@ -4668,7 +4668,7 @@
         <v>2644.692335115161</v>
       </c>
       <c r="R6" t="n">
-        <v>2619.060159589727</v>
+        <v>2619.060159589728</v>
       </c>
       <c r="S6" t="n">
         <v>2468.241055635078</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430.1035685417625</v>
+        <v>221.8300296302101</v>
       </c>
       <c r="C7" t="n">
-        <v>430.1035685417625</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="D7" t="n">
-        <v>430.1035685417625</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="E7" t="n">
-        <v>430.1035685417625</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="F7" t="n">
-        <v>430.1035685417625</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="G7" t="n">
-        <v>261.4356865473089</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="H7" t="n">
-        <v>179.2410700768922</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="I7" t="n">
         <v>52.89384670230323</v>
@@ -4747,28 +4747,28 @@
         <v>997.7199589528118</v>
       </c>
       <c r="R7" t="n">
-        <v>864.4975526564543</v>
+        <v>997.7199589528118</v>
       </c>
       <c r="S7" t="n">
-        <v>655.9935596405192</v>
+        <v>997.7199589528118</v>
       </c>
       <c r="T7" t="n">
-        <v>430.1035685417625</v>
+        <v>771.8299678540552</v>
       </c>
       <c r="U7" t="n">
-        <v>430.1035685417625</v>
+        <v>771.8299678540552</v>
       </c>
       <c r="V7" t="n">
-        <v>430.1035685417625</v>
+        <v>517.1454796481684</v>
       </c>
       <c r="W7" t="n">
-        <v>430.1035685417625</v>
+        <v>517.1454796481684</v>
       </c>
       <c r="X7" t="n">
-        <v>430.1035685417625</v>
+        <v>517.1454796481684</v>
       </c>
       <c r="Y7" t="n">
-        <v>430.1035685417625</v>
+        <v>296.3529005046382</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1823.43211485791</v>
+        <v>1755.411273394029</v>
       </c>
       <c r="C8" t="n">
-        <v>1744.714455060367</v>
+        <v>1386.448756453617</v>
       </c>
       <c r="D8" t="n">
         <v>1386.448756453617</v>
@@ -4799,55 +4799,55 @@
         <v>172.5868173021924</v>
       </c>
       <c r="I8" t="n">
-        <v>52.89384670230324</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="J8" t="n">
-        <v>241.5337457160396</v>
+        <v>74.12809669568652</v>
       </c>
       <c r="K8" t="n">
-        <v>324.0969002906319</v>
+        <v>156.6912512702789</v>
       </c>
       <c r="L8" t="n">
-        <v>876.9101585368312</v>
+        <v>709.504509516478</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.627969520143</v>
+        <v>1341.22232049979</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.613023773775</v>
+        <v>1968.529988559636</v>
       </c>
       <c r="O8" t="n">
-        <v>2288.782049090734</v>
+        <v>2498.97388984404</v>
       </c>
       <c r="P8" t="n">
-        <v>2399.516374340261</v>
+        <v>2609.708215093566</v>
       </c>
       <c r="Q8" t="n">
-        <v>2644.692335115162</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="R8" t="n">
-        <v>2644.692335115162</v>
+        <v>2644.692335115161</v>
       </c>
       <c r="S8" t="n">
-        <v>2644.692335115162</v>
+        <v>2554.965725724737</v>
       </c>
       <c r="T8" t="n">
-        <v>2429.892473382873</v>
+        <v>2340.165863992448</v>
       </c>
       <c r="U8" t="n">
-        <v>2176.200770128024</v>
+        <v>2086.474160737599</v>
       </c>
       <c r="V8" t="n">
-        <v>2176.200770128024</v>
+        <v>1755.411273394029</v>
       </c>
       <c r="W8" t="n">
-        <v>1823.43211485791</v>
+        <v>1755.411273394029</v>
       </c>
       <c r="X8" t="n">
-        <v>1823.43211485791</v>
+        <v>1755.411273394029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1823.43211485791</v>
+        <v>1755.411273394029</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>98.79870371198675</v>
       </c>
       <c r="I9" t="n">
-        <v>52.89384670230324</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="J9" t="n">
-        <v>171.5530985591989</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="K9" t="n">
-        <v>500.9815028650088</v>
+        <v>382.3222510081131</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.343042731127</v>
+        <v>886.6837908742316</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.46492919664</v>
+        <v>1166.484013992265</v>
       </c>
       <c r="N9" t="n">
-        <v>1431.121670849305</v>
+        <v>1821.045366933268</v>
       </c>
       <c r="O9" t="n">
         <v>1980.557679602028</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.8850738740016</v>
+        <v>225.0230775619007</v>
       </c>
       <c r="C10" t="n">
-        <v>220.8850738740016</v>
+        <v>225.0230775619007</v>
       </c>
       <c r="D10" t="n">
-        <v>70.76843446166585</v>
+        <v>225.0230775619007</v>
       </c>
       <c r="E10" t="n">
-        <v>70.76843446166585</v>
+        <v>225.0230775619007</v>
       </c>
       <c r="F10" t="n">
-        <v>70.76843446166585</v>
+        <v>225.0230775619007</v>
       </c>
       <c r="G10" t="n">
-        <v>70.76843446166585</v>
+        <v>225.0230775619007</v>
       </c>
       <c r="H10" t="n">
-        <v>70.76843446166585</v>
+        <v>70.76843446166583</v>
       </c>
       <c r="I10" t="n">
-        <v>70.76843446166585</v>
+        <v>70.76843446166583</v>
       </c>
       <c r="J10" t="n">
-        <v>52.89384670230324</v>
+        <v>52.89384670230323</v>
       </c>
       <c r="K10" t="n">
-        <v>153.9417762979131</v>
+        <v>153.941776297913</v>
       </c>
       <c r="L10" t="n">
-        <v>338.7747711987315</v>
+        <v>338.7747711987314</v>
       </c>
       <c r="M10" t="n">
-        <v>544.0443719179694</v>
+        <v>544.0443719179693</v>
       </c>
       <c r="N10" t="n">
-        <v>749.8677367540738</v>
+        <v>749.8677367540736</v>
       </c>
       <c r="O10" t="n">
-        <v>923.9626321426726</v>
+        <v>923.9626321426724</v>
       </c>
       <c r="P10" t="n">
         <v>1049.410208741288</v>
@@ -4987,25 +4987,25 @@
         <v>1052.828528161648</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.828528161648</v>
+        <v>963.2223776404089</v>
       </c>
       <c r="T10" t="n">
-        <v>827.1993314740131</v>
+        <v>963.2223776404089</v>
       </c>
       <c r="U10" t="n">
-        <v>827.1993314740131</v>
+        <v>963.2223776404089</v>
       </c>
       <c r="V10" t="n">
-        <v>572.5148432681262</v>
+        <v>963.2223776404089</v>
       </c>
       <c r="W10" t="n">
-        <v>448.8746247720189</v>
+        <v>673.8052076034483</v>
       </c>
       <c r="X10" t="n">
-        <v>220.8850738740016</v>
+        <v>445.8156567054309</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8850738740016</v>
+        <v>225.0230775619007</v>
       </c>
     </row>
     <row r="11">
@@ -5027,40 +5027,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,25 +5121,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.961901336507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1955.886674680705</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.202186474818</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W13" t="n">
-        <v>1411.785016437858</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.79546553984</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5352,13 +5352,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>776.1751066403293</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429803</v>
@@ -5467,19 +5467,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.8620388433919</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C19" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510511</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>980.3030828171618</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.5105036736317</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,16 +6060,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,10 +6786,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942655</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,22 +7017,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7266,10 +7266,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.8495760785427</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>414.4141754569194</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>13.04286547574762</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.29452440411762</v>
+        <v>479.2556368694906</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>8.081262324054009</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>137.2482295762782</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8228,7 +8228,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>193.9029982678591</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>13.04286547574762</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.2556368694906</v>
+        <v>415.4941547202741</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>26.26471374217428</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>419.8493347087369</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>363.914016128731</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>101.3160472357868</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>460.5097083720583</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.465101099348471e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.2626775806608</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.0516147295368</v>
+        <v>13.05161472953677</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.4204908877588</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50.79679039797324</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.462026260311717</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.69596074145944</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>294.8833531269805</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>33.80434148608731</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4505659076173</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>152.3434691354488</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>48.89210447937324</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23707,7 +23707,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>77.79022981064173</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>63.36835372228526</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>215.1260109543622</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1216209.395220121</v>
+        <v>1216209.39522012</v>
       </c>
     </row>
     <row r="9">
@@ -26317,16 +26317,16 @@
         <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
         <v>201786.6499225015</v>
@@ -26335,7 +26335,7 @@
         <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225015</v>
@@ -26344,13 +26344,13 @@
         <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172991.9703322179</v>
+        <v>172991.9703322176</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.140419326788858e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363162</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>127476.6190575752</v>
+        <v>127476.6190575751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.055013000840674e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107154.1262506734</v>
+        <v>107154.1262506735</v>
       </c>
       <c r="C4" t="n">
         <v>189363.538187811</v>
@@ -26424,40 +26424,40 @@
         <v>183702.0609696329</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695022</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695133</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695106</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
+        <v>14278.33979478854</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14278.33979478854</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14278.33979478851</v>
+      </c>
+      <c r="P4" t="n">
         <v>14278.33979478853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14278.33979478855</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14278.33979478855</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785101.7735145855</v>
+        <v>-785461.8565303029</v>
       </c>
       <c r="C6" t="n">
-        <v>-70137.29530109387</v>
+        <v>-70137.29530109389</v>
       </c>
       <c r="D6" t="n">
-        <v>-93904.16098989637</v>
+        <v>-93904.16098989642</v>
       </c>
       <c r="E6" t="n">
-        <v>-680591.660129913</v>
+        <v>-680626.3980553485</v>
       </c>
       <c r="F6" t="n">
-        <v>94376.63956689935</v>
+        <v>94341.90164146372</v>
       </c>
       <c r="G6" t="n">
-        <v>94376.63956689897</v>
+        <v>94341.90164146354</v>
       </c>
       <c r="H6" t="n">
-        <v>94376.63956689957</v>
+        <v>94341.9016414638</v>
       </c>
       <c r="I6" t="n">
-        <v>94376.63956689939</v>
+        <v>94341.90164146369</v>
       </c>
       <c r="J6" t="n">
-        <v>-78615.33076531849</v>
+        <v>-78650.06869075399</v>
       </c>
       <c r="K6" t="n">
-        <v>94376.63956689935</v>
+        <v>94341.9016414635</v>
       </c>
       <c r="L6" t="n">
-        <v>68390.26882373568</v>
+        <v>68390.26882373553</v>
       </c>
       <c r="M6" t="n">
-        <v>-39658.63224020795</v>
+        <v>-39658.63224020814</v>
       </c>
       <c r="N6" t="n">
-        <v>87817.98681736703</v>
+        <v>87817.98681736694</v>
       </c>
       <c r="O6" t="n">
-        <v>87817.98681736691</v>
+        <v>87817.98681736679</v>
       </c>
       <c r="P6" t="n">
         <v>87817.986817367</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26793,7 +26793,7 @@
         <v>661.1730837787903</v>
       </c>
       <c r="D4" t="n">
-        <v>661.1730837787904</v>
+        <v>661.1730837787903</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,16 +26802,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787906</v>
+        <v>661.1730837787901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208582</v>
+        <v>511.535204320858</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.4204908877588</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>192.5455988287155</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>32.86890534315444</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.981203174509</v>
@@ -27585,25 +27585,25 @@
         <v>131.8901822333939</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.4189530857758</v>
       </c>
       <c r="T4" t="n">
-        <v>223.631091187769</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2639506555482</v>
+        <v>13.38061688188554</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>319.678043405944</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>60.74434149590866</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>316.4204908877588</v>
@@ -27667,7 +27667,7 @@
         <v>157.7226091094245</v>
       </c>
       <c r="T5" t="n">
-        <v>213.2415595701749</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1655630849886</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>106.0543380162535</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.981203174509</v>
       </c>
       <c r="H7" t="n">
-        <v>71.87667394806493</v>
+        <v>153.2493442537775</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.083751140843</v>
       </c>
       <c r="J7" t="n">
         <v>21.96800391142757</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>131.8901822333939</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.4189530857758</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2639506555482</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>287.3424085714403</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>65.8235438316199</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>116.6557928840921</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>164.1191820254448</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29272,10 +29272,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31841,28 +31841,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338196</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>175.8649040760285</v>
+        <v>179.1119431695595</v>
       </c>
       <c r="K2" t="n">
         <v>390.4068215647314</v>
       </c>
       <c r="L2" t="n">
-        <v>537.1388585687638</v>
+        <v>533.8918194752328</v>
       </c>
       <c r="M2" t="n">
         <v>164.9312305994112</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>113.0481698646612</v>
       </c>
       <c r="K3" t="n">
         <v>321.1171698763918</v>
@@ -34784,19 +34784,19 @@
         <v>493.8063059328719</v>
       </c>
       <c r="M3" t="n">
-        <v>628.7529319680584</v>
+        <v>163.0478682180585</v>
       </c>
       <c r="N3" t="n">
-        <v>208.2119713134174</v>
+        <v>661.1730837787903</v>
       </c>
       <c r="O3" t="n">
         <v>537.837005166243</v>
       </c>
       <c r="P3" t="n">
-        <v>414.4867973581094</v>
+        <v>104.1052910422262</v>
       </c>
       <c r="Q3" t="n">
-        <v>13.76608950900697</v>
+        <v>223.8433772448561</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>10.01532799748574</v>
       </c>
       <c r="K5" t="n">
-        <v>203.5096385698448</v>
+        <v>390.4068215647314</v>
       </c>
       <c r="L5" t="n">
         <v>537.1388585687638</v>
@@ -34948,7 +34948,7 @@
         <v>609.6073272566583</v>
       </c>
       <c r="O5" t="n">
-        <v>529.9908340830308</v>
+        <v>343.0936510881446</v>
       </c>
       <c r="P5" t="n">
         <v>92.48127471724507</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>113.0481698646612</v>
       </c>
       <c r="K6" t="n">
         <v>321.1171698763918</v>
       </c>
       <c r="L6" t="n">
-        <v>122.9659606294127</v>
+        <v>493.8063059328719</v>
       </c>
       <c r="M6" t="n">
         <v>628.7529319680584</v>
       </c>
       <c r="N6" t="n">
-        <v>661.1730837787903</v>
+        <v>597.4116016295739</v>
       </c>
       <c r="O6" t="n">
-        <v>537.837005166243</v>
+        <v>143.9746858895134</v>
       </c>
       <c r="P6" t="n">
-        <v>122.2887424603464</v>
+        <v>96.02402871817216</v>
       </c>
       <c r="Q6" t="n">
         <v>223.8433772448561</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>616.1465194481131</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>535.8019204892961</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,13 +35258,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>282.6264879980139</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>661.1730837787903</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.7309431539454</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295477</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
